--- a/EMSCI/Tables/emsci.longitudinal.results_UEMS.xlsx
+++ b/EMSCI/Tables/emsci.longitudinal.results_UEMS.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jutzca/Documents/Github/SCI_Neurological_Recovery/EMSCI/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECDE76B5-2782-834A-B2CF-BAA1A38DE61D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FDBD0B4-FF17-D147-BB22-DC91F5AA6254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="3080" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="6460" yWindow="2580" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="emsci.longitudinal.results_UEMS" sheetId="1" r:id="rId1"/>
+    <sheet name="emsci.longitudinal.results_uems" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -79,10 +79,10 @@
     <t>Male: Tetraplegia: AIS D</t>
   </si>
   <si>
-    <t>Time since Injury</t>
-  </si>
-  <si>
-    <t>Time since Injury*YEARDOI</t>
+    <t>Time since injury</t>
+  </si>
+  <si>
+    <t>Time since injury*YEARDOI</t>
   </si>
 </sst>
 </file>
@@ -92,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,21 +228,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -588,13 +581,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -952,41 +944,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1017,7 +1010,6 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1033,6 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1065,7 +1056,6 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1087,7 +1077,6 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1124,6 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1145,6 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1181,7 +1168,6 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1189,6 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,7 +1236,6 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1257,6 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1297,7 +1280,6 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1301,6 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1348,6 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1386,10 +1366,11 @@
       <c r="G18" s="2">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>0.1265</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1413,7 +1394,6 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1415,6 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1483,7 +1462,6 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1483,6 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
@@ -1529,7 +1506,6 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1551,7 +1527,6 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,7 +1574,6 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1621,7 +1595,6 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -1645,7 +1618,6 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1641,6 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1717,7 +1688,6 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
@@ -1741,7 +1711,6 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
@@ -1765,7 +1734,6 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1787,7 +1755,6 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>20</v>
       </c>
@@ -1835,7 +1802,6 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
@@ -1859,7 +1825,6 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1"/>
       <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
@@ -1883,7 +1848,6 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1905,7 +1869,6 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
